--- a/Database/Menu.xlsx
+++ b/Database/Menu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MinhTien\Karaoke\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minh Tien\KiemTien\Karaoke\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="94">
   <si>
     <t>Nước</t>
   </si>
@@ -188,6 +188,126 @@
   </si>
   <si>
     <t>Cơm cháy</t>
+  </si>
+  <si>
+    <t>Đường</t>
+  </si>
+  <si>
+    <t>Muối</t>
+  </si>
+  <si>
+    <t>Bột ngọt</t>
+  </si>
+  <si>
+    <t>Cà phê</t>
+  </si>
+  <si>
+    <t>Thịt gà</t>
+  </si>
+  <si>
+    <t>Thịt heo</t>
+  </si>
+  <si>
+    <t>Thịt bò</t>
+  </si>
+  <si>
+    <t>Thịt vịt</t>
+  </si>
+  <si>
+    <t>Cá diêu hồng</t>
+  </si>
+  <si>
+    <t>Trứng gà</t>
+  </si>
+  <si>
+    <t>Trứng vịt</t>
+  </si>
+  <si>
+    <t>Đá</t>
+  </si>
+  <si>
+    <t>Trà</t>
+  </si>
+  <si>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>Cháo vịt</t>
+  </si>
+  <si>
+    <t>Cháo gà</t>
+  </si>
+  <si>
+    <t>Gạo</t>
+  </si>
+  <si>
+    <t>Vịt quay</t>
+  </si>
+  <si>
+    <t>Heo quay</t>
+  </si>
+  <si>
+    <t>Gà nướng</t>
+  </si>
+  <si>
+    <t>Cá lóc hấp bầu</t>
+  </si>
+  <si>
+    <t>Cá diêu hồng chiên</t>
+  </si>
+  <si>
+    <t>Dầu ăn</t>
+  </si>
+  <si>
+    <t>Dầu hào</t>
+  </si>
+  <si>
+    <t>Socola</t>
+  </si>
+  <si>
+    <t>Nước tương</t>
+  </si>
+  <si>
+    <t>Sting</t>
+  </si>
+  <si>
+    <t>Cocacola</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Hành lá</t>
+  </si>
+  <si>
+    <t>Tỏi</t>
+  </si>
+  <si>
+    <t>Ớt</t>
+  </si>
+  <si>
+    <t>Tiêu</t>
+  </si>
+  <si>
+    <t>Xà bông</t>
+  </si>
+  <si>
+    <t>Thùng bia ngoài</t>
+  </si>
+  <si>
+    <t>Bánh sinh nhật</t>
+  </si>
+  <si>
+    <t>Đồ ăn ngoài</t>
+  </si>
+  <si>
+    <t>Thùng nước ngọt ngoài</t>
+  </si>
+  <si>
+    <t>Giờ hát</t>
+  </si>
+  <si>
+    <t>Tẩy đá</t>
   </si>
 </sst>
 </file>
@@ -569,7 +689,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P1" sqref="P1:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,10 +1244,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1340,7 @@
       </c>
       <c r="F2">
         <f ca="1">ROUND(RAND()*100,0)*1000</f>
-        <v>87000</v>
+        <v>59000</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -1257,7 +1378,7 @@
       </c>
       <c r="R2" t="str">
         <f ca="1">"(N'"&amp;B2&amp;"',N'"&amp;C2&amp;"',"&amp;D2&amp;","&amp;F2&amp;",10,1,"&amp;I2&amp;",0,NULL,NULL,NULL,NULL,0,1,0),"</f>
-        <v>(N'Lavie',N'Lavie',1,87000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Lavie',N'Lavie',1,59000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1280,7 +1401,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="1">ROUND(RAND()*100,0)*1000</f>
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -1318,7 +1439,7 @@
       </c>
       <c r="R3" t="str">
         <f t="shared" ref="R3:R66" ca="1" si="2">"(N'"&amp;B3&amp;"',N'"&amp;C3&amp;"',"&amp;D3&amp;","&amp;F3&amp;",10,1,"&amp;I3&amp;",0,NULL,NULL,NULL,NULL,0,1,0),"</f>
-        <v>(N'C2',N'C2',1,28000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'C2',N'C2',1,11000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1341,7 +1462,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -1379,7 +1500,7 @@
       </c>
       <c r="R4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'0 độ',N'0 độ',1,90000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'0 độ',N'0 độ',1,9000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1402,7 +1523,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -1440,7 +1561,7 @@
       </c>
       <c r="R5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Trà đá',N'Trà đá',1,23000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Trà đá',N'Trà đá',1,9000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1463,7 +1584,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -1501,7 +1622,7 @@
       </c>
       <c r="R6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Tiger',N'Tiger',3,20000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Tiger',N'Tiger',3,45000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1524,7 +1645,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>68000</v>
+        <v>30000</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1562,7 +1683,7 @@
       </c>
       <c r="R7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Sài gòn đỏ',N'Sài gòn đỏ',3,68000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Sài gòn đỏ',N'Sài gòn đỏ',3,30000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1585,7 +1706,7 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>58000</v>
+        <v>17000</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1623,7 +1744,7 @@
       </c>
       <c r="R8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Sài gòn xanh',N'Sài gòn xanh',3,58000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Sài gòn xanh',N'Sài gòn xanh',3,17000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1646,7 +1767,7 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>63000</v>
+        <v>9000</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1684,7 +1805,7 @@
       </c>
       <c r="R9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Heineken',N'Heineken',3,63000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Heineken',N'Heineken',3,9000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1707,7 +1828,7 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>74000</v>
+        <v>49000</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1745,7 +1866,7 @@
       </c>
       <c r="R10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Đậu phộng',N'Đậu phộng',4,74000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Đậu phộng',N'Đậu phộng',4,49000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1768,7 +1889,7 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1806,7 +1927,7 @@
       </c>
       <c r="R11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Khô mực',N'Khô mực',4,50000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Khô mực',N'Khô mực',4,30000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1829,7 +1950,7 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>71000</v>
+        <v>63000</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1867,7 +1988,7 @@
       </c>
       <c r="R12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Tôm khô',N'Tôm khô',4,71000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Tôm khô',N'Tôm khô',4,63000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1890,7 +2011,7 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1928,7 +2049,7 @@
       </c>
       <c r="R13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Khô đuối',N'Khô đuối',4,90000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Khô đuối',N'Khô đuối',4,20000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1951,7 +2072,7 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>34000</v>
+        <v>57000</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1989,7 +2110,7 @@
       </c>
       <c r="R14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Thèo lèo',N'Thèo lèo',9,34000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Thèo lèo',N'Thèo lèo',9,57000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2012,7 +2133,7 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>27000</v>
+        <v>67000</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -2050,7 +2171,7 @@
       </c>
       <c r="R15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Cơm cháy',N'Cơm cháy',9,27000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cơm cháy',N'Cơm cháy',9,67000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2073,7 +2194,7 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>88000</v>
+        <v>21000</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -2111,7 +2232,7 @@
       </c>
       <c r="R16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Cá viên chiên',N'Cá viên chiên',5,88000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cá viên chiên',N'Cá viên chiên',5,21000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2134,7 +2255,7 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>7000</v>
+        <v>71000</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -2172,7 +2293,7 @@
       </c>
       <c r="R17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Cơn chiên dương châu',N'Cơn chiên dương châu',5,7000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cơn chiên dương châu',N'Cơn chiên dương châu',5,71000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2195,7 +2316,7 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -2233,7 +2354,7 @@
       </c>
       <c r="R18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Ếch xào',N'Ếch xào',5,25000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Ếch xào',N'Ếch xào',5,23000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2256,7 +2377,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>75000</v>
+        <v>39000</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -2294,7 +2415,7 @@
       </c>
       <c r="R19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Chân gà hấp',N'Chân gà hấp',5,75000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Chân gà hấp',N'Chân gà hấp',5,39000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2317,7 +2438,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>38000</v>
+        <v>91000</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -2355,7 +2476,7 @@
       </c>
       <c r="R20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Cơm cuộn trứng',N'Cơm cuộn trứng',5,38000,10,1,5,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cơm cuộn trứng',N'Cơm cuộn trứng',5,91000,10,1,5,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2378,7 +2499,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>46000</v>
+        <v>96000</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -2416,27 +2537,30 @@
       </c>
       <c r="R21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'Khoai tây chiên',N'Khoai tây chiên',5,46000,10,1,6,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Khoai tây chiên',N'Khoai tây chiên',5,96000,10,1,6,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Đường</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" t="str">
         <f>VLOOKUP(D22,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>32000</v>
+        <v>64000</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -2446,7 +2570,7 @@
       </c>
       <c r="I22">
         <f>COUNTIF($D$2:D22,D22)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2474,27 +2598,30 @@
       </c>
       <c r="R22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,32000,10,1,5,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Đường',N'Đường',6,64000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Muối</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" t="str">
         <f>VLOOKUP(D23,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>94000</v>
+        <v>70000</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -2504,7 +2631,7 @@
       </c>
       <c r="I23">
         <f>COUNTIF($D$2:D23,D23)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2532,27 +2659,30 @@
       </c>
       <c r="R23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,94000,10,1,6,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Muối',N'Muối',6,70000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Bột ngọt</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" t="str">
         <f>VLOOKUP(D24,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>94000</v>
+        <v>97000</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -2562,7 +2692,7 @@
       </c>
       <c r="I24">
         <f>COUNTIF($D$2:D24,D24)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2590,27 +2720,30 @@
       </c>
       <c r="R24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,94000,10,1,7,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Bột ngọt',N'Bột ngọt',6,97000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Cà phê</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25" t="str">
         <f>VLOOKUP(D25,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>85000</v>
+        <v>16000</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -2620,7 +2753,7 @@
       </c>
       <c r="I25">
         <f>COUNTIF($D$2:D25,D25)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2648,27 +2781,30 @@
       </c>
       <c r="R25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,85000,10,1,8,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cà phê',N'Cà phê',6,16000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Thịt gà</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E26" t="str">
         <f>VLOOKUP(D26,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>8000</v>
+        <v>54000</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2678,7 +2814,7 @@
       </c>
       <c r="I26">
         <f>COUNTIF($D$2:D26,D26)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2706,27 +2842,30 @@
       </c>
       <c r="R26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,8000,10,1,9,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Thịt gà',N'Thịt gà',6,54000,10,1,5,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Thịt heo</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP(D27,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>87000</v>
+        <v>78000</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -2736,7 +2875,7 @@
       </c>
       <c r="I27">
         <f>COUNTIF($D$2:D27,D27)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2764,27 +2903,30 @@
       </c>
       <c r="R27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,87000,10,1,10,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Thịt heo',N'Thịt heo',6,78000,10,1,6,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Thịt bò</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP(D28,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>87000</v>
+        <v>51000</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -2794,7 +2936,7 @@
       </c>
       <c r="I28">
         <f>COUNTIF($D$2:D28,D28)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2822,27 +2964,30 @@
       </c>
       <c r="R28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,87000,10,1,11,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Thịt bò',N'Thịt bò',6,51000,10,1,7,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Thịt vịt</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP(D29,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>24000</v>
+        <v>42000</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -2852,7 +2997,7 @@
       </c>
       <c r="I29">
         <f>COUNTIF($D$2:D29,D29)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2880,27 +3025,30 @@
       </c>
       <c r="R29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,24000,10,1,12,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Thịt vịt',N'Thịt vịt',6,42000,10,1,8,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Cá diêu hồng</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP(D30,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>77000</v>
+        <v>81000</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -2910,7 +3058,7 @@
       </c>
       <c r="I30">
         <f>COUNTIF($D$2:D30,D30)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2938,27 +3086,30 @@
       </c>
       <c r="R30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,77000,10,1,13,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cá diêu hồng',N'Cá diêu hồng',6,81000,10,1,9,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Trứng gà</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP(D31,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>85000</v>
+        <v>87000</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -2968,7 +3119,7 @@
       </c>
       <c r="I31">
         <f>COUNTIF($D$2:D31,D31)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2996,27 +3147,30 @@
       </c>
       <c r="R31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,85000,10,1,14,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Trứng gà',N'Trứng gà',6,87000,10,1,10,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Trứng vịt</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP(D32,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>51000</v>
+        <v>79000</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -3026,7 +3180,7 @@
       </c>
       <c r="I32">
         <f>COUNTIF($D$2:D32,D32)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3054,27 +3208,30 @@
       </c>
       <c r="R32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,51000,10,1,15,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Trứng vịt',N'Trứng vịt',6,79000,10,1,11,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Đá</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP(D33,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>25000</v>
+        <v>69000</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -3084,7 +3241,7 @@
       </c>
       <c r="I33">
         <f>COUNTIF($D$2:D33,D33)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3112,27 +3269,30 @@
       </c>
       <c r="R33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,25000,10,1,16,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Đá',N'Đá',6,69000,10,1,12,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Trà</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP(D34,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>82000</v>
+        <v>10000</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -3142,7 +3302,7 @@
       </c>
       <c r="I34">
         <f>COUNTIF($D$2:D34,D34)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3170,16 +3330,19 @@
       </c>
       <c r="R34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,82000,10,1,17,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Trà',N'Trà',6,10000,10,1,13,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Soda</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3190,7 +3353,7 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -3200,7 +3363,7 @@
       </c>
       <c r="I35">
         <f>COUNTIF($D$2:D35,D35)</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3228,27 +3391,30 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,44000,10,1,18,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Soda',N'Soda',1,23000,10,1,5,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Cháo vịt</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP(D36,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>50000</v>
+        <v>78000</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -3258,7 +3424,7 @@
       </c>
       <c r="I36">
         <f>COUNTIF($D$2:D36,D36)</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3286,27 +3452,30 @@
       </c>
       <c r="R36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,50000,10,1,19,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cháo vịt',N'Cháo vịt',5,78000,10,1,7,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Cháo gà</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP(D37,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>91000</v>
+        <v>75000</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -3316,7 +3485,7 @@
       </c>
       <c r="I37">
         <f>COUNTIF($D$2:D37,D37)</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3344,27 +3513,30 @@
       </c>
       <c r="R37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,91000,10,1,20,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cháo gà',N'Cháo gà',5,75000,10,1,8,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Gạo</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP(D38,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>27000</v>
+        <v>51000</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -3374,7 +3546,7 @@
       </c>
       <c r="I38">
         <f>COUNTIF($D$2:D38,D38)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3402,27 +3574,30 @@
       </c>
       <c r="R38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,27000,10,1,21,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Gạo',N'Gạo',6,51000,10,1,14,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Vịt quay</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP(D39,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>16000</v>
+        <v>97000</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -3432,7 +3607,7 @@
       </c>
       <c r="I39">
         <f>COUNTIF($D$2:D39,D39)</f>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3460,27 +3635,30 @@
       </c>
       <c r="R39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,16000,10,1,22,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Vịt quay',N'Vịt quay',5,97000,10,1,9,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Heo quay</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40" t="str">
         <f>VLOOKUP(D40,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>14000</v>
+        <v>85000</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -3490,7 +3668,7 @@
       </c>
       <c r="I40">
         <f>COUNTIF($D$2:D40,D40)</f>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3518,27 +3696,30 @@
       </c>
       <c r="R40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,14000,10,1,23,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Heo quay',N'Heo quay',5,85000,10,1,10,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Gà nướng</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41" t="str">
         <f>VLOOKUP(D41,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>46000</v>
+        <v>7000</v>
       </c>
       <c r="G41">
         <v>10</v>
@@ -3548,7 +3729,7 @@
       </c>
       <c r="I41">
         <f>COUNTIF($D$2:D41,D41)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3576,27 +3757,30 @@
       </c>
       <c r="R41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,46000,10,1,24,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Gà nướng',N'Gà nướng',5,7000,10,1,11,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Cá lóc hấp bầu</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42" t="str">
         <f>VLOOKUP(D42,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -3606,7 +3790,7 @@
       </c>
       <c r="I42">
         <f>COUNTIF($D$2:D42,D42)</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3634,27 +3818,30 @@
       </c>
       <c r="R42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,27000,10,1,25,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cá lóc hấp bầu',N'Cá lóc hấp bầu',5,13000,10,1,12,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Cá diêu hồng chiên</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" t="str">
         <f>VLOOKUP(D43,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
-        <v>15000</v>
+        <v>88000</v>
       </c>
       <c r="G43">
         <v>10</v>
@@ -3664,7 +3851,7 @@
       </c>
       <c r="I43">
         <f>COUNTIF($D$2:D43,D43)</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3692,27 +3879,30 @@
       </c>
       <c r="R43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,15000,10,1,26,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cá diêu hồng chiên',N'Cá diêu hồng chiên',5,88000,10,1,13,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Dầu ăn</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44" t="str">
         <f>VLOOKUP(D44,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
-        <v>43000</v>
+        <v>61000</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -3722,7 +3912,7 @@
       </c>
       <c r="I44">
         <f>COUNTIF($D$2:D44,D44)</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3750,27 +3940,30 @@
       </c>
       <c r="R44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,43000,10,1,27,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Dầu ăn',N'Dầu ăn',6,61000,10,1,15,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Dầu hào</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E45" t="str">
         <f>VLOOKUP(D45,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -3780,7 +3973,7 @@
       </c>
       <c r="I45">
         <f>COUNTIF($D$2:D45,D45)</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3808,27 +4001,30 @@
       </c>
       <c r="R45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,24000,10,1,28,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Dầu hào',N'Dầu hào',6,43000,10,1,16,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Socola</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E46" t="str">
         <f>VLOOKUP(D46,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
-        <v>66000</v>
+        <v>13000</v>
       </c>
       <c r="G46">
         <v>10</v>
@@ -3838,7 +4034,7 @@
       </c>
       <c r="I46">
         <f>COUNTIF($D$2:D46,D46)</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3866,27 +4062,30 @@
       </c>
       <c r="R46" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,66000,10,1,29,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Socola',N'Socola',6,13000,10,1,17,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Nước tương</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E47" t="str">
         <f>VLOOKUP(D47,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="1"/>
-        <v>96000</v>
+        <v>43000</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -3896,7 +4095,7 @@
       </c>
       <c r="I47">
         <f>COUNTIF($D$2:D47,D47)</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3924,16 +4123,19 @@
       </c>
       <c r="R47" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,96000,10,1,30,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Nước tương',N'Nước tương',6,43000,10,1,18,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Sting</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3944,7 +4146,7 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="1"/>
-        <v>14000</v>
+        <v>36000</v>
       </c>
       <c r="G48">
         <v>10</v>
@@ -3954,7 +4156,7 @@
       </c>
       <c r="I48">
         <f>COUNTIF($D$2:D48,D48)</f>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3982,16 +4184,19 @@
       </c>
       <c r="R48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,14000,10,1,31,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Sting',N'Sting',1,36000,10,1,6,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Cocacola</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4002,7 +4207,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
-        <v>51000</v>
+        <v>22000</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -4012,7 +4217,7 @@
       </c>
       <c r="I49">
         <f>COUNTIF($D$2:D49,D49)</f>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -4040,16 +4245,19 @@
       </c>
       <c r="R49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,51000,10,1,32,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Cocacola',N'Cocacola',1,22000,10,1,7,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Pepsi</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4060,7 +4268,7 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
-        <v>44000</v>
+        <v>71000</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -4070,7 +4278,7 @@
       </c>
       <c r="I50">
         <f>COUNTIF($D$2:D50,D50)</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -4098,27 +4306,30 @@
       </c>
       <c r="R50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,44000,10,1,33,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Pepsi',N'Pepsi',1,71000,10,1,8,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Hành lá</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E51" t="str">
         <f>VLOOKUP(D51,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="1"/>
-        <v>19000</v>
+        <v>34000</v>
       </c>
       <c r="G51">
         <v>10</v>
@@ -4128,7 +4339,7 @@
       </c>
       <c r="I51">
         <f>COUNTIF($D$2:D51,D51)</f>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -4156,27 +4367,30 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,19000,10,1,34,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Hành lá',N'Hành lá',6,34000,10,1,19,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Tỏi</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52" t="str">
         <f>VLOOKUP(D52,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="1"/>
-        <v>59000</v>
+        <v>47000</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -4186,7 +4400,7 @@
       </c>
       <c r="I52">
         <f>COUNTIF($D$2:D52,D52)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4214,27 +4428,30 @@
       </c>
       <c r="R52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,59000,10,1,35,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Tỏi',N'Tỏi',6,47000,10,1,20,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Ớt</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53" t="str">
         <f>VLOOKUP(D53,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="1"/>
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="G53">
         <v>10</v>
@@ -4244,7 +4461,7 @@
       </c>
       <c r="I53">
         <f>COUNTIF($D$2:D53,D53)</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4272,27 +4489,30 @@
       </c>
       <c r="R53" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,11000,10,1,36,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Ớt',N'Ớt',6,12000,10,1,21,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Tiêu</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E54" t="str">
         <f>VLOOKUP(D54,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="1"/>
-        <v>91000</v>
+        <v>50000</v>
       </c>
       <c r="G54">
         <v>10</v>
@@ -4302,7 +4522,7 @@
       </c>
       <c r="I54">
         <f>COUNTIF($D$2:D54,D54)</f>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4330,27 +4550,30 @@
       </c>
       <c r="R54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,91000,10,1,37,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Tiêu',N'Tiêu',6,50000,10,1,22,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="C55">
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Xà bông</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55" t="str">
         <f>VLOOKUP(D55,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Nguyên liệu</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>61000</v>
       </c>
       <c r="G55">
         <v>10</v>
@@ -4360,7 +4583,7 @@
       </c>
       <c r="I55">
         <f>COUNTIF($D$2:D55,D55)</f>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4388,27 +4611,30 @@
       </c>
       <c r="R55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,45000,10,1,38,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Xà bông',N'Xà bông',6,61000,10,1,23,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Thùng bia ngoài</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E56" t="str">
         <f>VLOOKUP(D56,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Dịch vụ</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="1"/>
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="G56">
         <v>10</v>
@@ -4418,7 +4644,7 @@
       </c>
       <c r="I56">
         <f>COUNTIF($D$2:D56,D56)</f>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4446,27 +4672,30 @@
       </c>
       <c r="R56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,24000,10,1,39,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Thùng bia ngoài',N'Thùng bia ngoài',7,18000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="C57">
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Bánh sinh nhật</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E57" t="str">
         <f>VLOOKUP(D57,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Dịch vụ</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="1"/>
-        <v>43000</v>
+        <v>69000</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -4476,7 +4705,7 @@
       </c>
       <c r="I57">
         <f>COUNTIF($D$2:D57,D57)</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4504,27 +4733,30 @@
       </c>
       <c r="R57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,43000,10,1,40,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Bánh sinh nhật',N'Bánh sinh nhật',7,69000,10,1,2,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Đồ ăn ngoài</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E58" t="str">
         <f>VLOOKUP(D58,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Dịch vụ</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="1"/>
-        <v>43000</v>
+        <v>99000</v>
       </c>
       <c r="G58">
         <v>10</v>
@@ -4534,7 +4766,7 @@
       </c>
       <c r="I58">
         <f>COUNTIF($D$2:D58,D58)</f>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4562,27 +4794,30 @@
       </c>
       <c r="R58" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,43000,10,1,41,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Đồ ăn ngoài',N'Đồ ăn ngoài',7,99000,10,1,3,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Thùng nước ngọt ngoài</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E59" t="str">
         <f>VLOOKUP(D59,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Dịch vụ</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G59">
         <v>10</v>
@@ -4592,7 +4827,7 @@
       </c>
       <c r="I59">
         <f>COUNTIF($D$2:D59,D59)</f>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4620,27 +4855,30 @@
       </c>
       <c r="R59" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,15000,10,1,42,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Thùng nước ngọt ngoài',N'Thùng nước ngọt ngoài',7,5000,10,1,4,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="C60">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Giờ hát</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E60" t="str">
         <f>VLOOKUP(D60,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Karaoke</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="1"/>
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="G60">
         <v>10</v>
@@ -4650,7 +4888,7 @@
       </c>
       <c r="I60">
         <f>COUNTIF($D$2:D60,D60)</f>
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4678,16 +4916,19 @@
       </c>
       <c r="R60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,32000,10,1,43,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Giờ hát',N'Giờ hát',8,25000,10,1,1,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Tẩy đá</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4698,7 +4939,7 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="1"/>
-        <v>79000</v>
+        <v>66000</v>
       </c>
       <c r="G61">
         <v>10</v>
@@ -4708,7 +4949,7 @@
       </c>
       <c r="I61">
         <f>COUNTIF($D$2:D61,D61)</f>
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4736,7 +4977,7 @@
       </c>
       <c r="R61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,79000,10,1,44,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'Tẩy đá',N'Tẩy đá',1,66000,10,1,9,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4748,15 +4989,15 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E62" t="str">
         <f>VLOOKUP(D62,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="1"/>
-        <v>55000</v>
+        <v>84000</v>
       </c>
       <c r="G62">
         <v>10</v>
@@ -4766,7 +5007,7 @@
       </c>
       <c r="I62">
         <f>COUNTIF($D$2:D62,D62)</f>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -4794,7 +5035,7 @@
       </c>
       <c r="R62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,55000,10,1,45,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,84000,10,1,14,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4806,15 +5047,15 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E63" t="str">
         <f>VLOOKUP(D63,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="1"/>
-        <v>80000</v>
+        <v>99000</v>
       </c>
       <c r="G63">
         <v>10</v>
@@ -4824,7 +5065,7 @@
       </c>
       <c r="I63">
         <f>COUNTIF($D$2:D63,D63)</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -4852,7 +5093,7 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,80000,10,1,46,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,99000,10,1,15,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4864,15 +5105,15 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64" t="str">
         <f>VLOOKUP(D64,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="1"/>
-        <v>24000</v>
+        <v>61000</v>
       </c>
       <c r="G64">
         <v>10</v>
@@ -4882,7 +5123,7 @@
       </c>
       <c r="I64">
         <f>COUNTIF($D$2:D64,D64)</f>
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4910,7 +5151,7 @@
       </c>
       <c r="R64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,24000,10,1,47,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,61000,10,1,16,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4922,15 +5163,15 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65" t="str">
         <f>VLOOKUP(D65,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="1"/>
-        <v>4000</v>
+        <v>62000</v>
       </c>
       <c r="G65">
         <v>10</v>
@@ -4940,7 +5181,7 @@
       </c>
       <c r="I65">
         <f>COUNTIF($D$2:D65,D65)</f>
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4968,7 +5209,7 @@
       </c>
       <c r="R65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,4000,10,1,48,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,62000,10,1,17,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4980,15 +5221,15 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" t="str">
         <f>VLOOKUP(D66,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="1"/>
-        <v>52000</v>
+        <v>62000</v>
       </c>
       <c r="G66">
         <v>10</v>
@@ -4998,7 +5239,7 @@
       </c>
       <c r="I66">
         <f>COUNTIF($D$2:D66,D66)</f>
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -5026,7 +5267,7 @@
       </c>
       <c r="R66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>(N'',N'0',1,52000,10,1,49,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,62000,10,1,18,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -5038,15 +5279,15 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" t="str">
         <f>VLOOKUP(D67,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" ca="1" si="4">ROUND(RAND()*100,0)*1000</f>
-        <v>41000</v>
+        <v>59000</v>
       </c>
       <c r="G67">
         <v>10</v>
@@ -5056,7 +5297,7 @@
       </c>
       <c r="I67">
         <f>COUNTIF($D$2:D67,D67)</f>
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -5084,7 +5325,7 @@
       </c>
       <c r="R67" t="str">
         <f t="shared" ref="R67:R130" ca="1" si="5">"(N'"&amp;B67&amp;"',N'"&amp;C67&amp;"',"&amp;D67&amp;","&amp;F67&amp;",10,1,"&amp;I67&amp;",0,NULL,NULL,NULL,NULL,0,1,0),"</f>
-        <v>(N'',N'0',1,41000,10,1,50,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,59000,10,1,19,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -5096,15 +5337,15 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E68" t="str">
         <f>VLOOKUP(D68,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
-        <v>95000</v>
+        <v>14000</v>
       </c>
       <c r="G68">
         <v>10</v>
@@ -5114,7 +5355,7 @@
       </c>
       <c r="I68">
         <f>COUNTIF($D$2:D68,D68)</f>
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -5142,7 +5383,7 @@
       </c>
       <c r="R68" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,95000,10,1,51,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,14000,10,1,20,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -5154,15 +5395,15 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69" t="str">
         <f>VLOOKUP(D69,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>46000</v>
+        <v>50000</v>
       </c>
       <c r="G69">
         <v>10</v>
@@ -5172,7 +5413,7 @@
       </c>
       <c r="I69">
         <f>COUNTIF($D$2:D69,D69)</f>
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -5200,7 +5441,7 @@
       </c>
       <c r="R69" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,46000,10,1,52,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,50000,10,1,21,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -5212,15 +5453,15 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E70" t="str">
         <f>VLOOKUP(D70,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="G70">
         <v>10</v>
@@ -5230,7 +5471,7 @@
       </c>
       <c r="I70">
         <f>COUNTIF($D$2:D70,D70)</f>
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -5258,7 +5499,7 @@
       </c>
       <c r="R70" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,27000,10,1,53,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,33000,10,1,22,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5270,15 +5511,15 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" t="str">
         <f>VLOOKUP(D71,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>13000</v>
+        <v>49000</v>
       </c>
       <c r="G71">
         <v>10</v>
@@ -5288,7 +5529,7 @@
       </c>
       <c r="I71">
         <f>COUNTIF($D$2:D71,D71)</f>
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -5316,7 +5557,7 @@
       </c>
       <c r="R71" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,13000,10,1,54,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,49000,10,1,23,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5328,15 +5569,15 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72" t="str">
         <f>VLOOKUP(D72,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="G72">
         <v>10</v>
@@ -5346,7 +5587,7 @@
       </c>
       <c r="I72">
         <f>COUNTIF($D$2:D72,D72)</f>
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -5374,7 +5615,7 @@
       </c>
       <c r="R72" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,27000,10,1,55,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,11000,10,1,24,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5386,15 +5627,15 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E73" t="str">
         <f>VLOOKUP(D73,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
-        <v>14000</v>
+        <v>88000</v>
       </c>
       <c r="G73">
         <v>10</v>
@@ -5404,7 +5645,7 @@
       </c>
       <c r="I73">
         <f>COUNTIF($D$2:D73,D73)</f>
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -5432,7 +5673,7 @@
       </c>
       <c r="R73" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,14000,10,1,56,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,88000,10,1,25,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5444,11 +5685,11 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E74" t="str">
         <f>VLOOKUP(D74,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
@@ -5462,7 +5703,7 @@
       </c>
       <c r="I74">
         <f>COUNTIF($D$2:D74,D74)</f>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -5490,7 +5731,7 @@
       </c>
       <c r="R74" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,32000,10,1,57,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,32000,10,1,26,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -5502,15 +5743,15 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" t="str">
         <f>VLOOKUP(D75,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>76000</v>
+        <v>47000</v>
       </c>
       <c r="G75">
         <v>10</v>
@@ -5520,7 +5761,7 @@
       </c>
       <c r="I75">
         <f>COUNTIF($D$2:D75,D75)</f>
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -5548,7 +5789,7 @@
       </c>
       <c r="R75" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,76000,10,1,58,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,47000,10,1,27,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -5560,15 +5801,15 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" t="str">
         <f>VLOOKUP(D76,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>55000</v>
+        <v>67000</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -5578,7 +5819,7 @@
       </c>
       <c r="I76">
         <f>COUNTIF($D$2:D76,D76)</f>
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -5606,7 +5847,7 @@
       </c>
       <c r="R76" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,55000,10,1,59,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,67000,10,1,28,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -5618,15 +5859,15 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E77" t="str">
         <f>VLOOKUP(D77,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="G77">
         <v>10</v>
@@ -5636,7 +5877,7 @@
       </c>
       <c r="I77">
         <f>COUNTIF($D$2:D77,D77)</f>
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -5664,7 +5905,7 @@
       </c>
       <c r="R77" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,15000,10,1,60,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,29000,10,1,29,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5676,15 +5917,15 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E78" t="str">
         <f>VLOOKUP(D78,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>54000</v>
+        <v>35000</v>
       </c>
       <c r="G78">
         <v>10</v>
@@ -5694,7 +5935,7 @@
       </c>
       <c r="I78">
         <f>COUNTIF($D$2:D78,D78)</f>
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -5722,7 +5963,7 @@
       </c>
       <c r="R78" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,54000,10,1,61,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,35000,10,1,30,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -5734,15 +5975,15 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79" t="str">
         <f>VLOOKUP(D79,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>10</v>
@@ -5752,7 +5993,7 @@
       </c>
       <c r="I79">
         <f>COUNTIF($D$2:D79,D79)</f>
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5780,7 +6021,7 @@
       </c>
       <c r="R79" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,12000,10,1,62,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,0,10,1,31,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5792,15 +6033,15 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E80" t="str">
         <f>VLOOKUP(D80,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>4000</v>
+        <v>79000</v>
       </c>
       <c r="G80">
         <v>10</v>
@@ -5810,7 +6051,7 @@
       </c>
       <c r="I80">
         <f>COUNTIF($D$2:D80,D80)</f>
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5838,7 +6079,7 @@
       </c>
       <c r="R80" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,4000,10,1,63,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,79000,10,1,32,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5850,15 +6091,15 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E81" t="str">
         <f>VLOOKUP(D81,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>63000</v>
+        <v>98000</v>
       </c>
       <c r="G81">
         <v>10</v>
@@ -5868,7 +6109,7 @@
       </c>
       <c r="I81">
         <f>COUNTIF($D$2:D81,D81)</f>
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5896,7 +6137,7 @@
       </c>
       <c r="R81" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,63000,10,1,64,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,98000,10,1,33,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5908,15 +6149,15 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E82" t="str">
         <f>VLOOKUP(D82,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>33000</v>
+        <v>56000</v>
       </c>
       <c r="G82">
         <v>10</v>
@@ -5926,7 +6167,7 @@
       </c>
       <c r="I82">
         <f>COUNTIF($D$2:D82,D82)</f>
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -5954,7 +6195,7 @@
       </c>
       <c r="R82" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,33000,10,1,65,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,56000,10,1,34,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5966,15 +6207,15 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E83" t="str">
         <f>VLOOKUP(D83,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>29000</v>
+        <v>50000</v>
       </c>
       <c r="G83">
         <v>10</v>
@@ -5984,7 +6225,7 @@
       </c>
       <c r="I83">
         <f>COUNTIF($D$2:D83,D83)</f>
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -6012,7 +6253,7 @@
       </c>
       <c r="R83" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,29000,10,1,66,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,50000,10,1,35,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -6024,15 +6265,15 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E84" t="str">
         <f>VLOOKUP(D84,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>38000</v>
+        <v>62000</v>
       </c>
       <c r="G84">
         <v>10</v>
@@ -6042,7 +6283,7 @@
       </c>
       <c r="I84">
         <f>COUNTIF($D$2:D84,D84)</f>
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -6070,7 +6311,7 @@
       </c>
       <c r="R84" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,38000,10,1,67,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,62000,10,1,36,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -6082,15 +6323,15 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E85" t="str">
         <f>VLOOKUP(D85,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -6100,7 +6341,7 @@
       </c>
       <c r="I85">
         <f>COUNTIF($D$2:D85,D85)</f>
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -6128,7 +6369,7 @@
       </c>
       <c r="R85" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,36000,10,1,68,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,28000,10,1,37,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -6140,15 +6381,15 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E86" t="str">
         <f>VLOOKUP(D86,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>55000</v>
+        <v>47000</v>
       </c>
       <c r="G86">
         <v>10</v>
@@ -6158,7 +6399,7 @@
       </c>
       <c r="I86">
         <f>COUNTIF($D$2:D86,D86)</f>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -6186,7 +6427,7 @@
       </c>
       <c r="R86" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,55000,10,1,69,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,47000,10,1,38,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -6198,15 +6439,15 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E87" t="str">
         <f>VLOOKUP(D87,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>56000</v>
+        <v>67000</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -6216,7 +6457,7 @@
       </c>
       <c r="I87">
         <f>COUNTIF($D$2:D87,D87)</f>
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -6244,7 +6485,7 @@
       </c>
       <c r="R87" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,56000,10,1,70,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,67000,10,1,39,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -6256,15 +6497,15 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E88" t="str">
         <f>VLOOKUP(D88,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="G88">
         <v>10</v>
@@ -6274,7 +6515,7 @@
       </c>
       <c r="I88">
         <f>COUNTIF($D$2:D88,D88)</f>
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -6302,7 +6543,7 @@
       </c>
       <c r="R88" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,44000,10,1,71,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,50000,10,1,40,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -6314,15 +6555,15 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E89" t="str">
         <f>VLOOKUP(D89,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>11000</v>
+        <v>85000</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -6332,7 +6573,7 @@
       </c>
       <c r="I89">
         <f>COUNTIF($D$2:D89,D89)</f>
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -6360,7 +6601,7 @@
       </c>
       <c r="R89" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,11000,10,1,72,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,85000,10,1,41,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -6372,15 +6613,15 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" t="str">
         <f>VLOOKUP(D90,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>14000</v>
+        <v>85000</v>
       </c>
       <c r="G90">
         <v>10</v>
@@ -6390,7 +6631,7 @@
       </c>
       <c r="I90">
         <f>COUNTIF($D$2:D90,D90)</f>
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -6418,7 +6659,7 @@
       </c>
       <c r="R90" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,14000,10,1,73,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,85000,10,1,42,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -6430,15 +6671,15 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91" t="str">
         <f>VLOOKUP(D91,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -6448,7 +6689,7 @@
       </c>
       <c r="I91">
         <f>COUNTIF($D$2:D91,D91)</f>
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -6476,7 +6717,7 @@
       </c>
       <c r="R91" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,25000,10,1,74,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,7000,10,1,43,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -6488,15 +6729,15 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E92" t="str">
         <f>VLOOKUP(D92,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>62000</v>
+        <v>6000</v>
       </c>
       <c r="G92">
         <v>10</v>
@@ -6506,7 +6747,7 @@
       </c>
       <c r="I92">
         <f>COUNTIF($D$2:D92,D92)</f>
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -6534,7 +6775,7 @@
       </c>
       <c r="R92" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,62000,10,1,75,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,6000,10,1,44,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -6546,15 +6787,15 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E93" t="str">
         <f>VLOOKUP(D93,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>25000</v>
+        <v>79000</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -6564,7 +6805,7 @@
       </c>
       <c r="I93">
         <f>COUNTIF($D$2:D93,D93)</f>
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -6592,7 +6833,7 @@
       </c>
       <c r="R93" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,25000,10,1,76,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,79000,10,1,45,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -6604,15 +6845,15 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E94" t="str">
         <f>VLOOKUP(D94,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -6622,7 +6863,7 @@
       </c>
       <c r="I94">
         <f>COUNTIF($D$2:D94,D94)</f>
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -6650,7 +6891,7 @@
       </c>
       <c r="R94" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,36000,10,1,77,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,58000,10,1,46,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -6662,15 +6903,15 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E95" t="str">
         <f>VLOOKUP(D95,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>67000</v>
+        <v>21000</v>
       </c>
       <c r="G95">
         <v>10</v>
@@ -6680,7 +6921,7 @@
       </c>
       <c r="I95">
         <f>COUNTIF($D$2:D95,D95)</f>
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -6708,7 +6949,7 @@
       </c>
       <c r="R95" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,67000,10,1,78,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,21000,10,1,47,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -6720,15 +6961,15 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E96" t="str">
         <f>VLOOKUP(D96,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>51000</v>
+        <v>55000</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -6738,7 +6979,7 @@
       </c>
       <c r="I96">
         <f>COUNTIF($D$2:D96,D96)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -6766,7 +7007,7 @@
       </c>
       <c r="R96" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,51000,10,1,79,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,55000,10,1,48,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -6778,15 +7019,15 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E97" t="str">
         <f>VLOOKUP(D97,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>88000</v>
+        <v>80000</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -6796,7 +7037,7 @@
       </c>
       <c r="I97">
         <f>COUNTIF($D$2:D97,D97)</f>
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -6824,7 +7065,7 @@
       </c>
       <c r="R97" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,88000,10,1,80,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,80000,10,1,49,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -6836,15 +7077,15 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E98" t="str">
         <f>VLOOKUP(D98,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>54000</v>
+        <v>87000</v>
       </c>
       <c r="G98">
         <v>10</v>
@@ -6854,7 +7095,7 @@
       </c>
       <c r="I98">
         <f>COUNTIF($D$2:D98,D98)</f>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -6882,7 +7123,7 @@
       </c>
       <c r="R98" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,54000,10,1,81,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,87000,10,1,50,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6894,15 +7135,15 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E99" t="str">
         <f>VLOOKUP(D99,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>61000</v>
+        <v>80000</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -6912,7 +7153,7 @@
       </c>
       <c r="I99">
         <f>COUNTIF($D$2:D99,D99)</f>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6940,7 +7181,7 @@
       </c>
       <c r="R99" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,61000,10,1,82,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,80000,10,1,51,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -6952,15 +7193,15 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E100" t="str">
         <f>VLOOKUP(D100,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>72000</v>
+        <v>22000</v>
       </c>
       <c r="G100">
         <v>10</v>
@@ -6970,7 +7211,7 @@
       </c>
       <c r="I100">
         <f>COUNTIF($D$2:D100,D100)</f>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -6998,7 +7239,7 @@
       </c>
       <c r="R100" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,72000,10,1,83,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,22000,10,1,52,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -7010,15 +7251,15 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E101" t="str">
         <f>VLOOKUP(D101,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="G101">
         <v>10</v>
@@ -7028,7 +7269,7 @@
       </c>
       <c r="I101">
         <f>COUNTIF($D$2:D101,D101)</f>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -7056,7 +7297,7 @@
       </c>
       <c r="R101" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,0,10,1,84,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,61000,10,1,53,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -7068,15 +7309,15 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E102" t="str">
         <f>VLOOKUP(D102,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="4"/>
-        <v>94000</v>
+        <v>95000</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -7086,7 +7327,7 @@
       </c>
       <c r="I102">
         <f>COUNTIF($D$2:D102,D102)</f>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -7114,7 +7355,7 @@
       </c>
       <c r="R102" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,94000,10,1,85,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,95000,10,1,54,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -7126,15 +7367,15 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E103" t="str">
         <f>VLOOKUP(D103,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="4"/>
-        <v>87000</v>
+        <v>8000</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -7144,7 +7385,7 @@
       </c>
       <c r="I103">
         <f>COUNTIF($D$2:D103,D103)</f>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -7172,7 +7413,7 @@
       </c>
       <c r="R103" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,87000,10,1,86,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,8000,10,1,55,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -7184,15 +7425,15 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E104" t="str">
         <f>VLOOKUP(D104,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="4"/>
-        <v>87000</v>
+        <v>36000</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -7202,7 +7443,7 @@
       </c>
       <c r="I104">
         <f>COUNTIF($D$2:D104,D104)</f>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -7230,7 +7471,7 @@
       </c>
       <c r="R104" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,87000,10,1,87,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,36000,10,1,56,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -7242,15 +7483,15 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E105" t="str">
         <f>VLOOKUP(D105,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="4"/>
-        <v>64000</v>
+        <v>26000</v>
       </c>
       <c r="G105">
         <v>10</v>
@@ -7260,7 +7501,7 @@
       </c>
       <c r="I105">
         <f>COUNTIF($D$2:D105,D105)</f>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -7288,7 +7529,7 @@
       </c>
       <c r="R105" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,64000,10,1,88,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,26000,10,1,57,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -7300,15 +7541,15 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E106" t="str">
         <f>VLOOKUP(D106,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="4"/>
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="G106">
         <v>10</v>
@@ -7318,7 +7559,7 @@
       </c>
       <c r="I106">
         <f>COUNTIF($D$2:D106,D106)</f>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -7346,7 +7587,7 @@
       </c>
       <c r="R106" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,26000,10,1,89,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,8000,10,1,58,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -7358,15 +7599,15 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E107" t="str">
         <f>VLOOKUP(D107,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="4"/>
-        <v>62000</v>
+        <v>99000</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -7376,7 +7617,7 @@
       </c>
       <c r="I107">
         <f>COUNTIF($D$2:D107,D107)</f>
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -7404,7 +7645,7 @@
       </c>
       <c r="R107" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,62000,10,1,90,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,99000,10,1,59,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -7416,15 +7657,15 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E108" t="str">
         <f>VLOOKUP(D108,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="4"/>
-        <v>23000</v>
+        <v>41000</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -7434,7 +7675,7 @@
       </c>
       <c r="I108">
         <f>COUNTIF($D$2:D108,D108)</f>
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -7462,7 +7703,7 @@
       </c>
       <c r="R108" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,23000,10,1,91,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,41000,10,1,60,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -7474,15 +7715,15 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E109" t="str">
         <f>VLOOKUP(D109,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="4"/>
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -7492,7 +7733,7 @@
       </c>
       <c r="I109">
         <f>COUNTIF($D$2:D109,D109)</f>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -7520,7 +7761,7 @@
       </c>
       <c r="R109" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,34000,10,1,92,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,42000,10,1,61,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -7532,15 +7773,15 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E110" t="str">
         <f>VLOOKUP(D110,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="4"/>
-        <v>77000</v>
+        <v>39000</v>
       </c>
       <c r="G110">
         <v>10</v>
@@ -7550,7 +7791,7 @@
       </c>
       <c r="I110">
         <f>COUNTIF($D$2:D110,D110)</f>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -7578,7 +7819,7 @@
       </c>
       <c r="R110" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,77000,10,1,93,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,39000,10,1,62,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -7590,15 +7831,15 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E111" t="str">
         <f>VLOOKUP(D111,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="4"/>
-        <v>14000</v>
+        <v>77000</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -7608,7 +7849,7 @@
       </c>
       <c r="I111">
         <f>COUNTIF($D$2:D111,D111)</f>
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -7636,7 +7877,7 @@
       </c>
       <c r="R111" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,14000,10,1,94,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,77000,10,1,63,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -7648,15 +7889,15 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E112" t="str">
         <f>VLOOKUP(D112,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="4"/>
-        <v>99000</v>
+        <v>93000</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -7666,7 +7907,7 @@
       </c>
       <c r="I112">
         <f>COUNTIF($D$2:D112,D112)</f>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -7694,7 +7935,7 @@
       </c>
       <c r="R112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,99000,10,1,95,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,93000,10,1,64,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7706,15 +7947,15 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E113" t="str">
         <f>VLOOKUP(D113,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="4"/>
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -7724,7 +7965,7 @@
       </c>
       <c r="I113">
         <f>COUNTIF($D$2:D113,D113)</f>
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -7752,7 +7993,7 @@
       </c>
       <c r="R113" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,37000,10,1,96,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,0,10,1,65,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -7764,15 +8005,15 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E114" t="str">
         <f>VLOOKUP(D114,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="4"/>
-        <v>49000</v>
+        <v>63000</v>
       </c>
       <c r="G114">
         <v>10</v>
@@ -7782,7 +8023,7 @@
       </c>
       <c r="I114">
         <f>COUNTIF($D$2:D114,D114)</f>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -7810,7 +8051,7 @@
       </c>
       <c r="R114" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,49000,10,1,97,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,63000,10,1,66,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -7822,15 +8063,15 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E115" t="str">
         <f>VLOOKUP(D115,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="4"/>
-        <v>17000</v>
+        <v>83000</v>
       </c>
       <c r="G115">
         <v>10</v>
@@ -7840,7 +8081,7 @@
       </c>
       <c r="I115">
         <f>COUNTIF($D$2:D115,D115)</f>
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -7868,7 +8109,7 @@
       </c>
       <c r="R115" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,17000,10,1,98,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,83000,10,1,67,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -7880,15 +8121,15 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E116" t="str">
         <f>VLOOKUP(D116,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="4"/>
-        <v>5000</v>
+        <v>92000</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -7898,7 +8139,7 @@
       </c>
       <c r="I116">
         <f>COUNTIF($D$2:D116,D116)</f>
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -7926,7 +8167,7 @@
       </c>
       <c r="R116" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,5000,10,1,99,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,92000,10,1,68,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -7938,15 +8179,15 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E117" t="str">
         <f>VLOOKUP(D117,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="4"/>
-        <v>78000</v>
+        <v>52000</v>
       </c>
       <c r="G117">
         <v>10</v>
@@ -7956,7 +8197,7 @@
       </c>
       <c r="I117">
         <f>COUNTIF($D$2:D117,D117)</f>
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -7984,7 +8225,7 @@
       </c>
       <c r="R117" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,78000,10,1,100,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,52000,10,1,69,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -7996,15 +8237,15 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E118" t="str">
         <f>VLOOKUP(D118,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="4"/>
-        <v>61000</v>
+        <v>55000</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -8014,7 +8255,7 @@
       </c>
       <c r="I118">
         <f>COUNTIF($D$2:D118,D118)</f>
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -8042,7 +8283,7 @@
       </c>
       <c r="R118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,61000,10,1,101,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,55000,10,1,70,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -8054,15 +8295,15 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E119" t="str">
         <f>VLOOKUP(D119,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="4"/>
-        <v>12000</v>
+        <v>66000</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -8072,7 +8313,7 @@
       </c>
       <c r="I119">
         <f>COUNTIF($D$2:D119,D119)</f>
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -8100,7 +8341,7 @@
       </c>
       <c r="R119" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,12000,10,1,102,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,66000,10,1,71,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -8112,15 +8353,15 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E120" t="str">
         <f>VLOOKUP(D120,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="4"/>
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -8130,7 +8371,7 @@
       </c>
       <c r="I120">
         <f>COUNTIF($D$2:D120,D120)</f>
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -8158,7 +8399,7 @@
       </c>
       <c r="R120" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,20000,10,1,103,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,38000,10,1,72,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -8170,15 +8411,15 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E121" t="str">
         <f>VLOOKUP(D121,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="4"/>
-        <v>88000</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -8188,7 +8429,7 @@
       </c>
       <c r="I121">
         <f>COUNTIF($D$2:D121,D121)</f>
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -8216,7 +8457,7 @@
       </c>
       <c r="R121" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,88000,10,1,104,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,0,10,1,73,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -8228,15 +8469,15 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E122" t="str">
         <f>VLOOKUP(D122,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="4"/>
-        <v>93000</v>
+        <v>65000</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -8246,7 +8487,7 @@
       </c>
       <c r="I122">
         <f>COUNTIF($D$2:D122,D122)</f>
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -8274,7 +8515,7 @@
       </c>
       <c r="R122" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,93000,10,1,105,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,65000,10,1,74,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -8286,15 +8527,15 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E123" t="str">
         <f>VLOOKUP(D123,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="4"/>
-        <v>2000</v>
+        <v>58000</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -8304,7 +8545,7 @@
       </c>
       <c r="I123">
         <f>COUNTIF($D$2:D123,D123)</f>
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -8332,7 +8573,7 @@
       </c>
       <c r="R123" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,2000,10,1,106,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,58000,10,1,75,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -8344,15 +8585,15 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E124" t="str">
         <f>VLOOKUP(D124,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="4"/>
-        <v>82000</v>
+        <v>5000</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -8362,7 +8603,7 @@
       </c>
       <c r="I124">
         <f>COUNTIF($D$2:D124,D124)</f>
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -8390,7 +8631,7 @@
       </c>
       <c r="R124" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,82000,10,1,107,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,5000,10,1,76,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8402,15 +8643,15 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E125" t="str">
         <f>VLOOKUP(D125,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="4"/>
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="G125">
         <v>10</v>
@@ -8420,7 +8661,7 @@
       </c>
       <c r="I125">
         <f>COUNTIF($D$2:D125,D125)</f>
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -8448,7 +8689,7 @@
       </c>
       <c r="R125" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,27000,10,1,108,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,21000,10,1,77,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -8460,15 +8701,15 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E126" t="str">
         <f>VLOOKUP(D126,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="4"/>
-        <v>68000</v>
+        <v>2000</v>
       </c>
       <c r="G126">
         <v>10</v>
@@ -8478,7 +8719,7 @@
       </c>
       <c r="I126">
         <f>COUNTIF($D$2:D126,D126)</f>
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -8506,7 +8747,7 @@
       </c>
       <c r="R126" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,68000,10,1,109,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,2000,10,1,78,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -8518,15 +8759,15 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E127" t="str">
         <f>VLOOKUP(D127,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="4"/>
-        <v>72000</v>
+        <v>55000</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -8536,7 +8777,7 @@
       </c>
       <c r="I127">
         <f>COUNTIF($D$2:D127,D127)</f>
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -8564,7 +8805,7 @@
       </c>
       <c r="R127" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,72000,10,1,110,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,55000,10,1,79,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -8576,15 +8817,15 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E128" t="str">
         <f>VLOOKUP(D128,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="4"/>
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="G128">
         <v>10</v>
@@ -8594,7 +8835,7 @@
       </c>
       <c r="I128">
         <f>COUNTIF($D$2:D128,D128)</f>
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -8622,7 +8863,7 @@
       </c>
       <c r="R128" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,1000,10,1,111,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,65000,10,1,80,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -8634,15 +8875,15 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E129" t="str">
         <f>VLOOKUP(D129,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="4"/>
-        <v>72000</v>
+        <v>34000</v>
       </c>
       <c r="G129">
         <v>10</v>
@@ -8652,7 +8893,7 @@
       </c>
       <c r="I129">
         <f>COUNTIF($D$2:D129,D129)</f>
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -8680,7 +8921,7 @@
       </c>
       <c r="R129" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,72000,10,1,112,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,34000,10,1,81,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -8692,15 +8933,15 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E130" t="str">
         <f>VLOOKUP(D130,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="4"/>
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -8710,7 +8951,7 @@
       </c>
       <c r="I130">
         <f>COUNTIF($D$2:D130,D130)</f>
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -8738,7 +8979,7 @@
       </c>
       <c r="R130" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>(N'',N'0',1,38000,10,1,113,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,34000,10,1,82,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -8750,15 +8991,15 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E131" t="str">
         <f>VLOOKUP(D131,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F194" ca="1" si="7">ROUND(RAND()*100,0)*1000</f>
-        <v>80000</v>
+        <v>55000</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -8768,7 +9009,7 @@
       </c>
       <c r="I131">
         <f>COUNTIF($D$2:D131,D131)</f>
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -8796,7 +9037,7 @@
       </c>
       <c r="R131" t="str">
         <f t="shared" ref="R131:R194" ca="1" si="8">"(N'"&amp;B131&amp;"',N'"&amp;C131&amp;"',"&amp;D131&amp;","&amp;F131&amp;",10,1,"&amp;I131&amp;",0,NULL,NULL,NULL,NULL,0,1,0),"</f>
-        <v>(N'',N'0',1,80000,10,1,114,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,55000,10,1,83,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -8808,15 +9049,15 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E132" t="str">
         <f>VLOOKUP(D132,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="7"/>
-        <v>90000</v>
+        <v>55000</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -8826,7 +9067,7 @@
       </c>
       <c r="I132">
         <f>COUNTIF($D$2:D132,D132)</f>
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -8854,7 +9095,7 @@
       </c>
       <c r="R132" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,90000,10,1,115,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,55000,10,1,84,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -8866,15 +9107,15 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E133" t="str">
         <f>VLOOKUP(D133,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="7"/>
-        <v>39000</v>
+        <v>83000</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -8884,7 +9125,7 @@
       </c>
       <c r="I133">
         <f>COUNTIF($D$2:D133,D133)</f>
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -8912,7 +9153,7 @@
       </c>
       <c r="R133" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,39000,10,1,116,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,83000,10,1,85,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -8924,15 +9165,15 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E134" t="str">
         <f>VLOOKUP(D134,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="7"/>
-        <v>44000</v>
+        <v>70000</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -8942,7 +9183,7 @@
       </c>
       <c r="I134">
         <f>COUNTIF($D$2:D134,D134)</f>
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -8970,7 +9211,7 @@
       </c>
       <c r="R134" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,44000,10,1,117,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,70000,10,1,86,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -8982,15 +9223,15 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E135" t="str">
         <f>VLOOKUP(D135,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="7"/>
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="G135">
         <v>10</v>
@@ -9000,7 +9241,7 @@
       </c>
       <c r="I135">
         <f>COUNTIF($D$2:D135,D135)</f>
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -9028,7 +9269,7 @@
       </c>
       <c r="R135" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,95000,10,1,118,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,0,10,1,87,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -9040,15 +9281,15 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E136" t="str">
         <f>VLOOKUP(D136,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="7"/>
-        <v>73000</v>
+        <v>50000</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -9058,7 +9299,7 @@
       </c>
       <c r="I136">
         <f>COUNTIF($D$2:D136,D136)</f>
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -9086,7 +9327,7 @@
       </c>
       <c r="R136" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,73000,10,1,119,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,50000,10,1,88,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -9098,15 +9339,15 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E137" t="str">
         <f>VLOOKUP(D137,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="7"/>
-        <v>29000</v>
+        <v>86000</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -9116,7 +9357,7 @@
       </c>
       <c r="I137">
         <f>COUNTIF($D$2:D137,D137)</f>
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -9144,7 +9385,7 @@
       </c>
       <c r="R137" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,29000,10,1,120,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,86000,10,1,89,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -9156,15 +9397,15 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E138" t="str">
         <f>VLOOKUP(D138,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="7"/>
-        <v>77000</v>
+        <v>53000</v>
       </c>
       <c r="G138">
         <v>10</v>
@@ -9174,7 +9415,7 @@
       </c>
       <c r="I138">
         <f>COUNTIF($D$2:D138,D138)</f>
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -9202,7 +9443,7 @@
       </c>
       <c r="R138" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,77000,10,1,121,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,53000,10,1,90,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -9214,15 +9455,15 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E139" t="str">
         <f>VLOOKUP(D139,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="7"/>
-        <v>33000</v>
+        <v>41000</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -9232,7 +9473,7 @@
       </c>
       <c r="I139">
         <f>COUNTIF($D$2:D139,D139)</f>
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -9260,7 +9501,7 @@
       </c>
       <c r="R139" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,33000,10,1,122,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,41000,10,1,91,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -9272,15 +9513,15 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E140" t="str">
         <f>VLOOKUP(D140,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="7"/>
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="G140">
         <v>10</v>
@@ -9290,7 +9531,7 @@
       </c>
       <c r="I140">
         <f>COUNTIF($D$2:D140,D140)</f>
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -9318,7 +9559,7 @@
       </c>
       <c r="R140" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,10000,10,1,123,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,90000,10,1,92,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -9330,15 +9571,15 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E141" t="str">
         <f>VLOOKUP(D141,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="7"/>
-        <v>15000</v>
+        <v>53000</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -9348,7 +9589,7 @@
       </c>
       <c r="I141">
         <f>COUNTIF($D$2:D141,D141)</f>
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -9376,7 +9617,7 @@
       </c>
       <c r="R141" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,15000,10,1,124,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,53000,10,1,93,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -9388,15 +9629,15 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E142" t="str">
         <f>VLOOKUP(D142,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="7"/>
-        <v>97000</v>
+        <v>77000</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -9406,7 +9647,7 @@
       </c>
       <c r="I142">
         <f>COUNTIF($D$2:D142,D142)</f>
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -9434,7 +9675,7 @@
       </c>
       <c r="R142" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,97000,10,1,125,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,77000,10,1,94,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
@@ -9446,15 +9687,15 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E143" t="str">
         <f>VLOOKUP(D143,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="7"/>
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="G143">
         <v>10</v>
@@ -9464,7 +9705,7 @@
       </c>
       <c r="I143">
         <f>COUNTIF($D$2:D143,D143)</f>
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -9492,7 +9733,7 @@
       </c>
       <c r="R143" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,12000,10,1,126,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,9000,10,1,95,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -9504,15 +9745,15 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E144" t="str">
         <f>VLOOKUP(D144,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="7"/>
-        <v>74000</v>
+        <v>44000</v>
       </c>
       <c r="G144">
         <v>10</v>
@@ -9522,7 +9763,7 @@
       </c>
       <c r="I144">
         <f>COUNTIF($D$2:D144,D144)</f>
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -9550,7 +9791,7 @@
       </c>
       <c r="R144" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,74000,10,1,127,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,44000,10,1,96,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -9562,15 +9803,15 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E145" t="str">
         <f>VLOOKUP(D145,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="7"/>
-        <v>49000</v>
+        <v>16000</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -9580,7 +9821,7 @@
       </c>
       <c r="I145">
         <f>COUNTIF($D$2:D145,D145)</f>
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -9608,7 +9849,7 @@
       </c>
       <c r="R145" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,49000,10,1,128,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,16000,10,1,97,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -9620,15 +9861,15 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E146" t="str">
         <f>VLOOKUP(D146,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="7"/>
-        <v>62000</v>
+        <v>44000</v>
       </c>
       <c r="G146">
         <v>10</v>
@@ -9638,7 +9879,7 @@
       </c>
       <c r="I146">
         <f>COUNTIF($D$2:D146,D146)</f>
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -9666,7 +9907,7 @@
       </c>
       <c r="R146" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,62000,10,1,129,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,44000,10,1,98,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -9678,15 +9919,15 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E147" t="str">
         <f>VLOOKUP(D147,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="7"/>
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -9696,7 +9937,7 @@
       </c>
       <c r="I147">
         <f>COUNTIF($D$2:D147,D147)</f>
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -9724,7 +9965,7 @@
       </c>
       <c r="R147" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,78000,10,1,130,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,39000,10,1,99,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -9736,15 +9977,15 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E148" t="str">
         <f>VLOOKUP(D148,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="7"/>
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -9754,7 +9995,7 @@
       </c>
       <c r="I148">
         <f>COUNTIF($D$2:D148,D148)</f>
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -9782,7 +10023,7 @@
       </c>
       <c r="R148" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,32000,10,1,131,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,37000,10,1,100,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -9794,15 +10035,15 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E149" t="str">
         <f>VLOOKUP(D149,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="7"/>
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="G149">
         <v>10</v>
@@ -9812,7 +10053,7 @@
       </c>
       <c r="I149">
         <f>COUNTIF($D$2:D149,D149)</f>
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -9840,7 +10081,7 @@
       </c>
       <c r="R149" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,18000,10,1,132,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,24000,10,1,101,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
@@ -9852,15 +10093,15 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E150" t="str">
         <f>VLOOKUP(D150,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="7"/>
-        <v>77000</v>
+        <v>90000</v>
       </c>
       <c r="G150">
         <v>10</v>
@@ -9870,7 +10111,7 @@
       </c>
       <c r="I150">
         <f>COUNTIF($D$2:D150,D150)</f>
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -9898,7 +10139,7 @@
       </c>
       <c r="R150" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,77000,10,1,133,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,90000,10,1,102,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -9910,15 +10151,15 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E151" t="str">
         <f>VLOOKUP(D151,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="7"/>
-        <v>39000</v>
+        <v>63000</v>
       </c>
       <c r="G151">
         <v>10</v>
@@ -9928,7 +10169,7 @@
       </c>
       <c r="I151">
         <f>COUNTIF($D$2:D151,D151)</f>
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -9956,7 +10197,7 @@
       </c>
       <c r="R151" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,39000,10,1,134,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,63000,10,1,103,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -9968,15 +10209,15 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E152" t="str">
         <f>VLOOKUP(D152,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="7"/>
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="G152">
         <v>10</v>
@@ -9986,7 +10227,7 @@
       </c>
       <c r="I152">
         <f>COUNTIF($D$2:D152,D152)</f>
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -10014,7 +10255,7 @@
       </c>
       <c r="R152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,7000,10,1,135,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,70000,10,1,104,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -10026,15 +10267,15 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E153" t="str">
         <f>VLOOKUP(D153,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="7"/>
-        <v>8000</v>
+        <v>99000</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -10044,7 +10285,7 @@
       </c>
       <c r="I153">
         <f>COUNTIF($D$2:D153,D153)</f>
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -10072,7 +10313,7 @@
       </c>
       <c r="R153" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,8000,10,1,136,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,99000,10,1,105,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -10084,15 +10325,15 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E154" t="str">
         <f>VLOOKUP(D154,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="7"/>
-        <v>2000</v>
+        <v>43000</v>
       </c>
       <c r="G154">
         <v>10</v>
@@ -10102,7 +10343,7 @@
       </c>
       <c r="I154">
         <f>COUNTIF($D$2:D154,D154)</f>
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -10130,7 +10371,7 @@
       </c>
       <c r="R154" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,2000,10,1,137,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,43000,10,1,106,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -10142,15 +10383,15 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E155" t="str">
         <f>VLOOKUP(D155,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="7"/>
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -10160,7 +10401,7 @@
       </c>
       <c r="I155">
         <f>COUNTIF($D$2:D155,D155)</f>
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -10188,7 +10429,7 @@
       </c>
       <c r="R155" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,5000,10,1,138,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,12000,10,1,107,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -10200,15 +10441,15 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E156" t="str">
         <f>VLOOKUP(D156,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="7"/>
-        <v>76000</v>
+        <v>23000</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -10218,7 +10459,7 @@
       </c>
       <c r="I156">
         <f>COUNTIF($D$2:D156,D156)</f>
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -10246,7 +10487,7 @@
       </c>
       <c r="R156" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,76000,10,1,139,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,23000,10,1,108,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -10258,15 +10499,15 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E157" t="str">
         <f>VLOOKUP(D157,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="7"/>
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="G157">
         <v>10</v>
@@ -10276,7 +10517,7 @@
       </c>
       <c r="I157">
         <f>COUNTIF($D$2:D157,D157)</f>
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -10304,7 +10545,7 @@
       </c>
       <c r="R157" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,75000,10,1,140,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,27000,10,1,109,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -10316,15 +10557,15 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E158" t="str">
         <f>VLOOKUP(D158,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="7"/>
-        <v>43000</v>
+        <v>62000</v>
       </c>
       <c r="G158">
         <v>10</v>
@@ -10334,7 +10575,7 @@
       </c>
       <c r="I158">
         <f>COUNTIF($D$2:D158,D158)</f>
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -10362,7 +10603,7 @@
       </c>
       <c r="R158" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,43000,10,1,141,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,62000,10,1,110,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -10374,15 +10615,15 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E159" t="str">
         <f>VLOOKUP(D159,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="7"/>
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -10392,7 +10633,7 @@
       </c>
       <c r="I159">
         <f>COUNTIF($D$2:D159,D159)</f>
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -10420,7 +10661,7 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,59000,10,1,142,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,55000,10,1,111,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -10432,15 +10673,15 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E160" t="str">
         <f>VLOOKUP(D160,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="7"/>
-        <v>92000</v>
+        <v>85000</v>
       </c>
       <c r="G160">
         <v>10</v>
@@ -10450,7 +10691,7 @@
       </c>
       <c r="I160">
         <f>COUNTIF($D$2:D160,D160)</f>
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -10478,7 +10719,7 @@
       </c>
       <c r="R160" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,92000,10,1,143,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,85000,10,1,112,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -10490,15 +10731,15 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E161" t="str">
         <f>VLOOKUP(D161,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="7"/>
-        <v>92000</v>
+        <v>1000</v>
       </c>
       <c r="G161">
         <v>10</v>
@@ -10508,7 +10749,7 @@
       </c>
       <c r="I161">
         <f>COUNTIF($D$2:D161,D161)</f>
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -10536,7 +10777,7 @@
       </c>
       <c r="R161" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,92000,10,1,144,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,1000,10,1,113,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -10548,15 +10789,15 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E162" t="str">
         <f>VLOOKUP(D162,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="7"/>
-        <v>73000</v>
+        <v>7000</v>
       </c>
       <c r="G162">
         <v>10</v>
@@ -10566,7 +10807,7 @@
       </c>
       <c r="I162">
         <f>COUNTIF($D$2:D162,D162)</f>
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -10594,7 +10835,7 @@
       </c>
       <c r="R162" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,73000,10,1,145,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,7000,10,1,114,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -10606,15 +10847,15 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E163" t="str">
         <f>VLOOKUP(D163,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="7"/>
-        <v>57000</v>
+        <v>79000</v>
       </c>
       <c r="G163">
         <v>10</v>
@@ -10624,7 +10865,7 @@
       </c>
       <c r="I163">
         <f>COUNTIF($D$2:D163,D163)</f>
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -10652,7 +10893,7 @@
       </c>
       <c r="R163" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,57000,10,1,146,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,79000,10,1,115,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -10664,15 +10905,15 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E164" t="str">
         <f>VLOOKUP(D164,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="7"/>
-        <v>60000</v>
+        <v>91000</v>
       </c>
       <c r="G164">
         <v>10</v>
@@ -10682,7 +10923,7 @@
       </c>
       <c r="I164">
         <f>COUNTIF($D$2:D164,D164)</f>
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -10710,7 +10951,7 @@
       </c>
       <c r="R164" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,60000,10,1,147,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,91000,10,1,116,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -10722,15 +10963,15 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E165" t="str">
         <f>VLOOKUP(D165,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="7"/>
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="G165">
         <v>10</v>
@@ -10740,7 +10981,7 @@
       </c>
       <c r="I165">
         <f>COUNTIF($D$2:D165,D165)</f>
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -10768,7 +11009,7 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,2000,10,1,148,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,40000,10,1,117,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -10780,15 +11021,15 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E166" t="str">
         <f>VLOOKUP(D166,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="7"/>
-        <v>9000</v>
+        <v>70000</v>
       </c>
       <c r="G166">
         <v>10</v>
@@ -10798,7 +11039,7 @@
       </c>
       <c r="I166">
         <f>COUNTIF($D$2:D166,D166)</f>
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -10826,7 +11067,7 @@
       </c>
       <c r="R166" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,9000,10,1,149,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,70000,10,1,118,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -10838,15 +11079,15 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E167" t="str">
         <f>VLOOKUP(D167,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="7"/>
-        <v>67000</v>
+        <v>18000</v>
       </c>
       <c r="G167">
         <v>10</v>
@@ -10856,7 +11097,7 @@
       </c>
       <c r="I167">
         <f>COUNTIF($D$2:D167,D167)</f>
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -10884,7 +11125,7 @@
       </c>
       <c r="R167" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,67000,10,1,150,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,18000,10,1,119,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
@@ -10896,15 +11137,15 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E168" t="str">
         <f>VLOOKUP(D168,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="7"/>
-        <v>95000</v>
+        <v>6000</v>
       </c>
       <c r="G168">
         <v>10</v>
@@ -10914,7 +11155,7 @@
       </c>
       <c r="I168">
         <f>COUNTIF($D$2:D168,D168)</f>
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -10942,7 +11183,7 @@
       </c>
       <c r="R168" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,95000,10,1,151,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,6000,10,1,120,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -10954,15 +11195,15 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E169" t="str">
         <f>VLOOKUP(D169,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="7"/>
-        <v>39000</v>
+        <v>31000</v>
       </c>
       <c r="G169">
         <v>10</v>
@@ -10972,7 +11213,7 @@
       </c>
       <c r="I169">
         <f>COUNTIF($D$2:D169,D169)</f>
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -11000,7 +11241,7 @@
       </c>
       <c r="R169" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,39000,10,1,152,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,31000,10,1,121,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -11012,15 +11253,15 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E170" t="str">
         <f>VLOOKUP(D170,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="7"/>
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="G170">
         <v>10</v>
@@ -11030,7 +11271,7 @@
       </c>
       <c r="I170">
         <f>COUNTIF($D$2:D170,D170)</f>
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -11058,7 +11299,7 @@
       </c>
       <c r="R170" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,22000,10,1,153,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,28000,10,1,122,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -11070,15 +11311,15 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E171" t="str">
         <f>VLOOKUP(D171,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="7"/>
-        <v>69000</v>
+        <v>64000</v>
       </c>
       <c r="G171">
         <v>10</v>
@@ -11088,7 +11329,7 @@
       </c>
       <c r="I171">
         <f>COUNTIF($D$2:D171,D171)</f>
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -11116,7 +11357,7 @@
       </c>
       <c r="R171" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,69000,10,1,154,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,64000,10,1,123,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -11128,15 +11369,15 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E172" t="str">
         <f>VLOOKUP(D172,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="7"/>
-        <v>91000</v>
+        <v>97000</v>
       </c>
       <c r="G172">
         <v>10</v>
@@ -11146,7 +11387,7 @@
       </c>
       <c r="I172">
         <f>COUNTIF($D$2:D172,D172)</f>
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -11174,7 +11415,7 @@
       </c>
       <c r="R172" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,91000,10,1,155,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,97000,10,1,124,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
@@ -11186,15 +11427,15 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E173" t="str">
         <f>VLOOKUP(D173,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="7"/>
-        <v>47000</v>
+        <v>19000</v>
       </c>
       <c r="G173">
         <v>10</v>
@@ -11204,7 +11445,7 @@
       </c>
       <c r="I173">
         <f>COUNTIF($D$2:D173,D173)</f>
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -11232,7 +11473,7 @@
       </c>
       <c r="R173" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,47000,10,1,156,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,19000,10,1,125,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
@@ -11244,15 +11485,15 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E174" t="str">
         <f>VLOOKUP(D174,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="7"/>
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="G174">
         <v>10</v>
@@ -11262,7 +11503,7 @@
       </c>
       <c r="I174">
         <f>COUNTIF($D$2:D174,D174)</f>
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -11290,7 +11531,7 @@
       </c>
       <c r="R174" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,48000,10,1,157,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,5000,10,1,126,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
@@ -11302,15 +11543,15 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E175" t="str">
         <f>VLOOKUP(D175,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="7"/>
-        <v>97000</v>
+        <v>64000</v>
       </c>
       <c r="G175">
         <v>10</v>
@@ -11320,7 +11561,7 @@
       </c>
       <c r="I175">
         <f>COUNTIF($D$2:D175,D175)</f>
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -11348,7 +11589,7 @@
       </c>
       <c r="R175" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,97000,10,1,158,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,64000,10,1,127,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
@@ -11360,15 +11601,15 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E176" t="str">
         <f>VLOOKUP(D176,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="7"/>
-        <v>79000</v>
+        <v>84000</v>
       </c>
       <c r="G176">
         <v>10</v>
@@ -11378,7 +11619,7 @@
       </c>
       <c r="I176">
         <f>COUNTIF($D$2:D176,D176)</f>
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -11406,7 +11647,7 @@
       </c>
       <c r="R176" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,79000,10,1,159,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,84000,10,1,128,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
@@ -11418,15 +11659,15 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177" t="str">
         <f>VLOOKUP(D177,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="7"/>
-        <v>1000</v>
+        <v>35000</v>
       </c>
       <c r="G177">
         <v>10</v>
@@ -11436,7 +11677,7 @@
       </c>
       <c r="I177">
         <f>COUNTIF($D$2:D177,D177)</f>
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -11464,7 +11705,7 @@
       </c>
       <c r="R177" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,1000,10,1,160,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,35000,10,1,129,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -11476,15 +11717,15 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E178" t="str">
         <f>VLOOKUP(D178,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="7"/>
-        <v>95000</v>
+        <v>12000</v>
       </c>
       <c r="G178">
         <v>10</v>
@@ -11494,7 +11735,7 @@
       </c>
       <c r="I178">
         <f>COUNTIF($D$2:D178,D178)</f>
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -11522,7 +11763,7 @@
       </c>
       <c r="R178" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,95000,10,1,161,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,12000,10,1,130,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -11534,15 +11775,15 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E179" t="str">
         <f>VLOOKUP(D179,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F179">
         <f t="shared" ca="1" si="7"/>
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="G179">
         <v>10</v>
@@ -11552,7 +11793,7 @@
       </c>
       <c r="I179">
         <f>COUNTIF($D$2:D179,D179)</f>
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -11580,7 +11821,7 @@
       </c>
       <c r="R179" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,9000,10,1,162,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,27000,10,1,131,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -11592,15 +11833,15 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E180" t="str">
         <f>VLOOKUP(D180,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="7"/>
-        <v>93000</v>
+        <v>72000</v>
       </c>
       <c r="G180">
         <v>10</v>
@@ -11610,7 +11851,7 @@
       </c>
       <c r="I180">
         <f>COUNTIF($D$2:D180,D180)</f>
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -11638,7 +11879,7 @@
       </c>
       <c r="R180" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,93000,10,1,163,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,72000,10,1,132,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -11650,15 +11891,15 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E181" t="str">
         <f>VLOOKUP(D181,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="7"/>
-        <v>52000</v>
+        <v>57000</v>
       </c>
       <c r="G181">
         <v>10</v>
@@ -11668,7 +11909,7 @@
       </c>
       <c r="I181">
         <f>COUNTIF($D$2:D181,D181)</f>
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -11696,7 +11937,7 @@
       </c>
       <c r="R181" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,52000,10,1,164,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,57000,10,1,133,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -11708,15 +11949,15 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E182" t="str">
         <f>VLOOKUP(D182,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="7"/>
-        <v>14000</v>
+        <v>67000</v>
       </c>
       <c r="G182">
         <v>10</v>
@@ -11726,7 +11967,7 @@
       </c>
       <c r="I182">
         <f>COUNTIF($D$2:D182,D182)</f>
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -11754,7 +11995,7 @@
       </c>
       <c r="R182" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,14000,10,1,165,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,67000,10,1,134,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -11766,11 +12007,11 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E183" t="str">
         <f>VLOOKUP(D183,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="7"/>
@@ -11784,7 +12025,7 @@
       </c>
       <c r="I183">
         <f>COUNTIF($D$2:D183,D183)</f>
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -11812,7 +12053,7 @@
       </c>
       <c r="R183" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,17000,10,1,166,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,17000,10,1,135,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
@@ -11824,15 +12065,15 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E184" t="str">
         <f>VLOOKUP(D184,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F184">
         <f t="shared" ca="1" si="7"/>
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="G184">
         <v>10</v>
@@ -11842,7 +12083,7 @@
       </c>
       <c r="I184">
         <f>COUNTIF($D$2:D184,D184)</f>
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -11870,7 +12111,7 @@
       </c>
       <c r="R184" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,28000,10,1,167,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,33000,10,1,136,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -11882,15 +12123,15 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E185" t="str">
         <f>VLOOKUP(D185,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="7"/>
-        <v>10000</v>
+        <v>86000</v>
       </c>
       <c r="G185">
         <v>10</v>
@@ -11900,7 +12141,7 @@
       </c>
       <c r="I185">
         <f>COUNTIF($D$2:D185,D185)</f>
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -11928,7 +12169,7 @@
       </c>
       <c r="R185" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,10000,10,1,168,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,86000,10,1,137,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -11940,15 +12181,15 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E186" t="str">
         <f>VLOOKUP(D186,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="7"/>
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="G186">
         <v>10</v>
@@ -11958,7 +12199,7 @@
       </c>
       <c r="I186">
         <f>COUNTIF($D$2:D186,D186)</f>
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -11986,7 +12227,7 @@
       </c>
       <c r="R186" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,7000,10,1,169,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,28000,10,1,138,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
@@ -11998,15 +12239,15 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E187" t="str">
         <f>VLOOKUP(D187,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F187">
         <f t="shared" ca="1" si="7"/>
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="G187">
         <v>10</v>
@@ -12016,7 +12257,7 @@
       </c>
       <c r="I187">
         <f>COUNTIF($D$2:D187,D187)</f>
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -12044,7 +12285,7 @@
       </c>
       <c r="R187" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,20000,10,1,170,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,17000,10,1,139,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -12056,15 +12297,15 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E188" t="str">
         <f>VLOOKUP(D188,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F188">
         <f t="shared" ca="1" si="7"/>
-        <v>59000</v>
+        <v>87000</v>
       </c>
       <c r="G188">
         <v>10</v>
@@ -12074,7 +12315,7 @@
       </c>
       <c r="I188">
         <f>COUNTIF($D$2:D188,D188)</f>
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -12102,7 +12343,7 @@
       </c>
       <c r="R188" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,59000,10,1,171,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,87000,10,1,140,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
@@ -12114,15 +12355,15 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E189" t="str">
         <f>VLOOKUP(D189,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F189">
         <f t="shared" ca="1" si="7"/>
-        <v>66000</v>
+        <v>2000</v>
       </c>
       <c r="G189">
         <v>10</v>
@@ -12132,7 +12373,7 @@
       </c>
       <c r="I189">
         <f>COUNTIF($D$2:D189,D189)</f>
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -12160,7 +12401,7 @@
       </c>
       <c r="R189" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,66000,10,1,172,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,2000,10,1,141,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -12172,15 +12413,15 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E190" t="str">
         <f>VLOOKUP(D190,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F190">
         <f t="shared" ca="1" si="7"/>
-        <v>85000</v>
+        <v>86000</v>
       </c>
       <c r="G190">
         <v>10</v>
@@ -12190,7 +12431,7 @@
       </c>
       <c r="I190">
         <f>COUNTIF($D$2:D190,D190)</f>
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -12218,7 +12459,7 @@
       </c>
       <c r="R190" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,85000,10,1,173,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,86000,10,1,142,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
@@ -12230,15 +12471,15 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E191" t="str">
         <f>VLOOKUP(D191,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="7"/>
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="G191">
         <v>10</v>
@@ -12248,7 +12489,7 @@
       </c>
       <c r="I191">
         <f>COUNTIF($D$2:D191,D191)</f>
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -12276,7 +12517,7 @@
       </c>
       <c r="R191" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,7000,10,1,174,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,12000,10,1,143,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -12288,15 +12529,15 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E192" t="str">
         <f>VLOOKUP(D192,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F192">
         <f t="shared" ca="1" si="7"/>
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="G192">
         <v>10</v>
@@ -12306,7 +12547,7 @@
       </c>
       <c r="I192">
         <f>COUNTIF($D$2:D192,D192)</f>
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -12334,7 +12575,7 @@
       </c>
       <c r="R192" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,25000,10,1,175,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,9000,10,1,144,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -12346,15 +12587,15 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E193" t="str">
         <f>VLOOKUP(D193,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="7"/>
-        <v>63000</v>
+        <v>31000</v>
       </c>
       <c r="G193">
         <v>10</v>
@@ -12364,7 +12605,7 @@
       </c>
       <c r="I193">
         <f>COUNTIF($D$2:D193,D193)</f>
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -12392,7 +12633,7 @@
       </c>
       <c r="R193" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,63000,10,1,176,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,31000,10,1,145,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -12404,15 +12645,15 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E194" t="str">
         <f>VLOOKUP(D194,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F194">
         <f t="shared" ca="1" si="7"/>
-        <v>35000</v>
+        <v>76000</v>
       </c>
       <c r="G194">
         <v>10</v>
@@ -12422,7 +12663,7 @@
       </c>
       <c r="I194">
         <f>COUNTIF($D$2:D194,D194)</f>
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -12450,7 +12691,7 @@
       </c>
       <c r="R194" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>(N'',N'0',1,35000,10,1,177,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,76000,10,1,146,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -12462,15 +12703,15 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E195" t="str">
         <f>VLOOKUP(D195,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F195">
         <f t="shared" ref="F195:F217" ca="1" si="10">ROUND(RAND()*100,0)*1000</f>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G195">
         <v>10</v>
@@ -12480,7 +12721,7 @@
       </c>
       <c r="I195">
         <f>COUNTIF($D$2:D195,D195)</f>
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -12508,7 +12749,7 @@
       </c>
       <c r="R195" t="str">
         <f t="shared" ref="R195:R217" ca="1" si="11">"(N'"&amp;B195&amp;"',N'"&amp;C195&amp;"',"&amp;D195&amp;","&amp;F195&amp;",10,1,"&amp;I195&amp;",0,NULL,NULL,NULL,NULL,0,1,0),"</f>
-        <v>(N'',N'0',1,12000,10,1,178,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,14000,10,1,147,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -12520,15 +12761,15 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E196" t="str">
         <f>VLOOKUP(D196,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="10"/>
-        <v>76000</v>
+        <v>40000</v>
       </c>
       <c r="G196">
         <v>10</v>
@@ -12538,7 +12779,7 @@
       </c>
       <c r="I196">
         <f>COUNTIF($D$2:D196,D196)</f>
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -12566,7 +12807,7 @@
       </c>
       <c r="R196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,76000,10,1,179,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,40000,10,1,148,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -12578,15 +12819,15 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E197" t="str">
         <f>VLOOKUP(D197,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="10"/>
-        <v>49000</v>
+        <v>97000</v>
       </c>
       <c r="G197">
         <v>10</v>
@@ -12596,7 +12837,7 @@
       </c>
       <c r="I197">
         <f>COUNTIF($D$2:D197,D197)</f>
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -12624,7 +12865,7 @@
       </c>
       <c r="R197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,49000,10,1,180,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,97000,10,1,149,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
@@ -12636,15 +12877,15 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E198" t="str">
         <f>VLOOKUP(D198,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F198">
         <f t="shared" ca="1" si="10"/>
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="G198">
         <v>10</v>
@@ -12654,7 +12895,7 @@
       </c>
       <c r="I198">
         <f>COUNTIF($D$2:D198,D198)</f>
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -12682,7 +12923,7 @@
       </c>
       <c r="R198" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,13000,10,1,181,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,18000,10,1,150,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
@@ -12694,15 +12935,15 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E199" t="str">
         <f>VLOOKUP(D199,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F199">
         <f t="shared" ca="1" si="10"/>
-        <v>81000</v>
+        <v>1000</v>
       </c>
       <c r="G199">
         <v>10</v>
@@ -12712,7 +12953,7 @@
       </c>
       <c r="I199">
         <f>COUNTIF($D$2:D199,D199)</f>
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -12740,7 +12981,7 @@
       </c>
       <c r="R199" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,81000,10,1,182,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,1000,10,1,151,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
@@ -12752,15 +12993,15 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E200" t="str">
         <f>VLOOKUP(D200,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="10"/>
-        <v>63000</v>
+        <v>4000</v>
       </c>
       <c r="G200">
         <v>10</v>
@@ -12770,7 +13011,7 @@
       </c>
       <c r="I200">
         <f>COUNTIF($D$2:D200,D200)</f>
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -12798,7 +13039,7 @@
       </c>
       <c r="R200" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,63000,10,1,183,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,4000,10,1,152,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
@@ -12810,15 +13051,15 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E201" t="str">
         <f>VLOOKUP(D201,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F201">
         <f t="shared" ca="1" si="10"/>
-        <v>57000</v>
+        <v>66000</v>
       </c>
       <c r="G201">
         <v>10</v>
@@ -12828,7 +13069,7 @@
       </c>
       <c r="I201">
         <f>COUNTIF($D$2:D201,D201)</f>
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -12856,7 +13097,7 @@
       </c>
       <c r="R201" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,57000,10,1,184,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,66000,10,1,153,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
@@ -12868,15 +13109,15 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E202" t="str">
         <f>VLOOKUP(D202,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F202">
         <f t="shared" ca="1" si="10"/>
-        <v>13000</v>
+        <v>78000</v>
       </c>
       <c r="G202">
         <v>10</v>
@@ -12886,7 +13127,7 @@
       </c>
       <c r="I202">
         <f>COUNTIF($D$2:D202,D202)</f>
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -12914,7 +13155,7 @@
       </c>
       <c r="R202" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,13000,10,1,185,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,78000,10,1,154,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
@@ -12926,15 +13167,15 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E203" t="str">
         <f>VLOOKUP(D203,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F203">
         <f t="shared" ca="1" si="10"/>
-        <v>74000</v>
+        <v>55000</v>
       </c>
       <c r="G203">
         <v>10</v>
@@ -12944,7 +13185,7 @@
       </c>
       <c r="I203">
         <f>COUNTIF($D$2:D203,D203)</f>
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -12972,7 +13213,7 @@
       </c>
       <c r="R203" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,74000,10,1,186,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,55000,10,1,155,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
@@ -12984,15 +13225,15 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E204" t="str">
         <f>VLOOKUP(D204,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F204">
         <f t="shared" ca="1" si="10"/>
-        <v>92000</v>
+        <v>96000</v>
       </c>
       <c r="G204">
         <v>10</v>
@@ -13002,7 +13243,7 @@
       </c>
       <c r="I204">
         <f>COUNTIF($D$2:D204,D204)</f>
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -13030,7 +13271,7 @@
       </c>
       <c r="R204" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,92000,10,1,187,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,96000,10,1,156,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
@@ -13042,15 +13283,15 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E205" t="str">
         <f>VLOOKUP(D205,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F205">
         <f t="shared" ca="1" si="10"/>
-        <v>66000</v>
+        <v>12000</v>
       </c>
       <c r="G205">
         <v>10</v>
@@ -13060,7 +13301,7 @@
       </c>
       <c r="I205">
         <f>COUNTIF($D$2:D205,D205)</f>
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -13088,7 +13329,7 @@
       </c>
       <c r="R205" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,66000,10,1,188,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,12000,10,1,157,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
@@ -13100,15 +13341,15 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E206" t="str">
         <f>VLOOKUP(D206,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F206">
         <f t="shared" ca="1" si="10"/>
-        <v>11000</v>
+        <v>82000</v>
       </c>
       <c r="G206">
         <v>10</v>
@@ -13118,7 +13359,7 @@
       </c>
       <c r="I206">
         <f>COUNTIF($D$2:D206,D206)</f>
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -13146,7 +13387,7 @@
       </c>
       <c r="R206" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,11000,10,1,189,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,82000,10,1,158,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
@@ -13158,15 +13399,15 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E207" t="str">
         <f>VLOOKUP(D207,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F207">
         <f t="shared" ca="1" si="10"/>
-        <v>21000</v>
+        <v>59000</v>
       </c>
       <c r="G207">
         <v>10</v>
@@ -13176,7 +13417,7 @@
       </c>
       <c r="I207">
         <f>COUNTIF($D$2:D207,D207)</f>
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -13204,7 +13445,7 @@
       </c>
       <c r="R207" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,21000,10,1,190,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,59000,10,1,159,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
@@ -13216,15 +13457,15 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E208" t="str">
         <f>VLOOKUP(D208,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F208">
         <f t="shared" ca="1" si="10"/>
-        <v>13000</v>
+        <v>44000</v>
       </c>
       <c r="G208">
         <v>10</v>
@@ -13234,7 +13475,7 @@
       </c>
       <c r="I208">
         <f>COUNTIF($D$2:D208,D208)</f>
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -13262,7 +13503,7 @@
       </c>
       <c r="R208" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,13000,10,1,191,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,44000,10,1,160,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
@@ -13274,15 +13515,15 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E209" t="str">
         <f>VLOOKUP(D209,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F209">
         <f t="shared" ca="1" si="10"/>
-        <v>39000</v>
+        <v>71000</v>
       </c>
       <c r="G209">
         <v>10</v>
@@ -13292,7 +13533,7 @@
       </c>
       <c r="I209">
         <f>COUNTIF($D$2:D209,D209)</f>
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -13320,7 +13561,7 @@
       </c>
       <c r="R209" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,39000,10,1,192,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,71000,10,1,161,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
@@ -13332,15 +13573,15 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E210" t="str">
         <f>VLOOKUP(D210,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F210">
         <f t="shared" ca="1" si="10"/>
-        <v>71000</v>
+        <v>32000</v>
       </c>
       <c r="G210">
         <v>10</v>
@@ -13350,7 +13591,7 @@
       </c>
       <c r="I210">
         <f>COUNTIF($D$2:D210,D210)</f>
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -13378,7 +13619,7 @@
       </c>
       <c r="R210" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,71000,10,1,193,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,32000,10,1,162,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
@@ -13390,15 +13631,15 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E211" t="str">
         <f>VLOOKUP(D211,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F211">
         <f t="shared" ca="1" si="10"/>
-        <v>28000</v>
+        <v>80000</v>
       </c>
       <c r="G211">
         <v>10</v>
@@ -13408,7 +13649,7 @@
       </c>
       <c r="I211">
         <f>COUNTIF($D$2:D211,D211)</f>
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -13436,7 +13677,7 @@
       </c>
       <c r="R211" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,28000,10,1,194,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,80000,10,1,163,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
@@ -13448,15 +13689,15 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E212" t="str">
         <f>VLOOKUP(D212,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F212">
         <f t="shared" ca="1" si="10"/>
-        <v>54000</v>
+        <v>11000</v>
       </c>
       <c r="G212">
         <v>10</v>
@@ -13466,7 +13707,7 @@
       </c>
       <c r="I212">
         <f>COUNTIF($D$2:D212,D212)</f>
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -13494,7 +13735,7 @@
       </c>
       <c r="R212" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,54000,10,1,195,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,11000,10,1,164,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
@@ -13506,15 +13747,15 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E213" t="str">
         <f>VLOOKUP(D213,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F213">
         <f t="shared" ca="1" si="10"/>
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="G213">
         <v>10</v>
@@ -13524,7 +13765,7 @@
       </c>
       <c r="I213">
         <f>COUNTIF($D$2:D213,D213)</f>
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -13552,7 +13793,7 @@
       </c>
       <c r="R213" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,29000,10,1,196,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,40000,10,1,165,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -13564,15 +13805,15 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E214" t="str">
         <f>VLOOKUP(D214,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F214">
         <f t="shared" ca="1" si="10"/>
-        <v>57000</v>
+        <v>17000</v>
       </c>
       <c r="G214">
         <v>10</v>
@@ -13582,7 +13823,7 @@
       </c>
       <c r="I214">
         <f>COUNTIF($D$2:D214,D214)</f>
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -13610,7 +13851,7 @@
       </c>
       <c r="R214" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,57000,10,1,197,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,17000,10,1,166,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
@@ -13622,15 +13863,15 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E215" t="str">
         <f>VLOOKUP(D215,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F215">
         <f t="shared" ca="1" si="10"/>
-        <v>57000</v>
+        <v>40000</v>
       </c>
       <c r="G215">
         <v>10</v>
@@ -13640,7 +13881,7 @@
       </c>
       <c r="I215">
         <f>COUNTIF($D$2:D215,D215)</f>
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -13668,7 +13909,7 @@
       </c>
       <c r="R215" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,57000,10,1,198,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,40000,10,1,167,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
@@ -13680,15 +13921,15 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E216" t="str">
         <f>VLOOKUP(D216,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F216">
         <f t="shared" ca="1" si="10"/>
-        <v>77000</v>
+        <v>2000</v>
       </c>
       <c r="G216">
         <v>10</v>
@@ -13698,7 +13939,7 @@
       </c>
       <c r="I216">
         <f>COUNTIF($D$2:D216,D216)</f>
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -13726,7 +13967,7 @@
       </c>
       <c r="R216" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,77000,10,1,199,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,2000,10,1,168,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
@@ -13738,15 +13979,15 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E217" t="str">
         <f>VLOOKUP(D217,NHOM!$A$2:$B$10,2,0)</f>
-        <v>Nước</v>
+        <v>Đồ chế biến</v>
       </c>
       <c r="F217">
         <f t="shared" ca="1" si="10"/>
-        <v>43000</v>
+        <v>79000</v>
       </c>
       <c r="G217">
         <v>10</v>
@@ -13756,7 +13997,7 @@
       </c>
       <c r="I217">
         <f>COUNTIF($D$2:D217,D217)</f>
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -13784,10 +14025,11 @@
       </c>
       <c r="R217" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>(N'',N'0',1,43000,10,1,200,0,NULL,NULL,NULL,NULL,0,1,0),</v>
+        <v>(N'',N'0',5,79000,10,1,169,0,NULL,NULL,NULL,NULL,0,1,0),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>